--- a/ARS_SoftwareUnitTestSpecification.xlsx
+++ b/ARS_SoftwareUnitTestSpecification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종혁\Pictures\Desktop\ARS_Test_Git\SW_Test_Autonomous_Object_Tracking_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55405CB8-FC4F-4FA9-959C-8A0C237C743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9730B9E-2F5B-4AD7-A500-141DF6EC18BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
+    <workbookView xWindow="9990" yWindow="915" windowWidth="18465" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="392">
   <si>
     <t>Project :</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,18 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos_x = 31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경계값 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos_x = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos_x = 60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pos_x = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,14 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos_x = 61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 조건은 수행될 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,20 +199,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos_x = 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pos_x = -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get_angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 10000
-prev_index = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return_time = 10000
 prev_index = 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,39 +303,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규 입력된 거리 값을 Circular Queue에 누적한 후, 전체 Circular Queue에 대한 평균 값을 구해낸다.
-만약 Circular Queue의 크기가 10 미만이라면, stack distance를 호출하여 거리의 평균치를 구해낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current distance = 5
-distance_circular_queue = {1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered_distance = 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>current distance = 10
-distance_circular_queue = {1, 2, 3, 4, 5, 6, 7, 8, 9}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered_distance = 55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current distance = 10
-distance_circular_queue = {1, 2, 3, 4, 5, 6, 7}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,16 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방 물체의 위치 좌표를 입력받아,
-해당 좌표로부터 바퀴가 회전해야할
-각도를 산출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos_x = 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,30 +333,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = -29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,6 +354,1562 @@
   </si>
   <si>
     <t>TC_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 10000
+prev_index = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)
+prev_index = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 10000
+prev_index = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">distance = 170
+current index = 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 170
+curret index = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파가 전방 물체에 맞고 돌아오는 시간을 반환하여, distance_circular_queue에 누적한다.
+ distance = ((float)(340*return_time) /10000)/2를 따르며, 
+circular_queue의 current index는 (prev_index + 1)%queue_size가 된다.
+queue_size는 10의 상수값을 가진다.
+따라서 인덱스의 값은 0~9 사이의 값을 가진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = -1
+prev_index = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)
+prev_index = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = -1
+prev_index = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)
+prev_index = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 0
+prev_index = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)
+curret index = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 0
+prev_index = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 0
+prev_index = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 0
+prev_index = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)
+prev_index = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 1
+prev_index = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 0.017
+prev_index = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 5
+prev_index = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 0.085
+prev_index = 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currnet_index = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currnet_index = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filtered_distance = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filtered_distance = 35.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 0
+distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 1
+distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 3
+distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 5
+distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 9
+distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 0
+distance_circular_queue = {42, 30, 30, 30, 30, 30, 30, 30, 30, 30}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 5
+distance_circular_queue = {42, 80, 45, 90, 60, 30, 30, 30, 30, 30}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 9
+distance_circular_queue = {42, 80, 45, 90, 60, 30, 30, 30, 30, 30}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 10
+distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 55}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 9
+distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 90}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 Circular Queue에 대한 평균 값을 구해낸다. 
+만일 최근 갱신된 값이 평균 값에 비하여 1.3배 이상 크거나 작을 경우, 혹은 Circular Queue의 크기가 10 미만이라면, stack distance를 호출하여 10개의 입력을 새로 받는다. 이후 거리의 평균치를 계산해 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 8
+distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 3
+distance_circular_queue = {50, 53, 49, 60}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 4
+distance_circular_queue = {50, 53, 49, 60, 90}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = -1
+distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 55}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 1
+distance_circular_queue = {50, 53}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 2
+distance_circular_queue = {50, 53. 49}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 3
+distance_circular_queue = {50, 53. 49, 50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 4
+distance_circular_queue = {50, 53. 49, 50, 49}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 5
+distance_circular_queue = {50, 53. 49, 50, 49, 55}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 6
+distance_circular_queue = {50, 53. 49, 50, 49, 55, 53}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 7
+distance_circular_queue = {50, 53. 49, 50, 49, 55, 53, 50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_index = 8
+distance_circular_queue = {50, 53. 49, 50, 49, 55, 53, 50, 45}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data_process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sensor_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인 정보 구조체, 파싱된 타겟 정보 구조체를 생성한다. 또한 전방 물체에 대한 Circular Queue에 거리 값을 누적한다. 해당 과정에서는 stack_distance를 호출한다. 
+최종적으로 라인 정보, 타겟 정보, 거리 값 배열을 하나의 구조체로 형성하여 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sensor_data(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority_maker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 전방 물체에 대하여 로봇의 좌, 우측 중 어느 방향에 있는지 파악한 후, DC모터의 회전에 적용할 각도를 구해낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동등 분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 29.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -20.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -29.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 255(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_tracking_process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수로 입력 받은 Sensor Data를 이용하여, 물체 추적에 따른 모터의 속력, 회전 값을 산출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 1
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 15
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 0.5
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 0
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = -1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = -0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = -30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = -1
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = -31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 0
+speed = 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 10
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 10
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+angle = 30
+distance = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 31
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -31
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -20
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -6.666
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -10
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -3.333
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -30
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -10
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -10
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = -29
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -9.666
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 30
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 30
+distance = 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 10
+speed = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+angle = 30
+distance = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_tracking_process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수로 입력 받은 Sensor Data를 이용하여, 라인 추적에 필요한 속력과 방향 값을 산출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+direction = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+direction = 0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+direction = -0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+direction = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+direction = 0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+direction = -0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 0
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 0
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.lines_info.line_middle = 1
+sensor_data.lines_info.line_left = 1
+sensor_data.lines_info.line_right = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard_prevention_process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수로 입력 받은 Sensor Data를
+이용하여, 위험 예방에 필요한 속력과 방향 값을 산출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 15
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 0
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -15
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -30
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 31
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 1
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0.5
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0.033
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0
+speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -0.033
+speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -0.5
+speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -1
+speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 15
+distance = 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 1
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 1
+speed = 6.666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 0.5
+speed = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 1
+revolving_ratio = 0.033
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 0
+distance = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 0
+speed = 3.666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -1
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -0.033
+speed = 6.666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -15
+distance = 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -0.5
+speed = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -30
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -30
+distance = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -1
+speed = 3.666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -1
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -30
+distance = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = -1
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30
+distance = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 1
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_or_off = 0
+revolving_ratio = 1
+speed = 0(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 1
+output_from_object_process.on_or_off 
+= 1
+output_from_line_process.on_or_off 
+= 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물체 추적, 라인 추적, 위험 예방 프로세스에 대응하는 구조체를 각각 생성한다.
+각 구조체에 담긴 값들을 읽어 해당 기능이 수행 가능한지 판단하며 다음에 실행될 최 우선순위 기능을 선정한다.
+최우선순위로 선정된 기능의 속력과 방향 값을 멤버로 하여 구조체로 생산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = output_from_hazard_process.speed
+selected_structure.direction = output_from_hazard_process.direction
+selected_structure.priority_code = output_from_hazard_process.priority_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 1
+output_from_object_process.on_or_off 
+= 0
+output_from_line_process.on_or_off 
+= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 1
+output_from_object_process.on_or_off 
+= 0
+output_from_line_process.on_or_off 
+= 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 1
+output_from_object_process.on_or_off 
+= 1
+output_from_line_process.on_or_off 
+= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 0
+output_from_object_process.on_or_off 
+= 1
+output_from_line_process.on_or_off 
+= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = output_from_object_process.speed
+selected_structure.direction = output_from_object_process.direction
+selected_structure.priority_code = output_from_object_process.priority_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 0
+output_from_object_process.on_or_off 
+= 1
+output_from_line_process.on_or_off 
+= 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 0
+output_from_object_process.on_or_off 
+= 0
+output_from_line_process.on_or_off 
+= 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = output_from_line_process.speed
+selected_structure.direction = output_from_line_process.direction
+selected_structure.priority_code = output_from_line_process.priority_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_from_hazard_process.on_or_off = 0
+output_from_object_process.on_or_off 
+= 0
+output_from_line_process.on_or_off 
+= 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return process(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우선 순위 기능에 대응하는 구조체의 멤버 변수를 읽어 들여 이상치가 없는지 확인한다. 만일 이상치가 확인될 경우 값을 조정한다.
+조정한 값을 바탕으로 모터의 속력, 방향 값을 포함한 구조체를 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 61
+selected_structure.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_vector.speed = 0
+motor_vector.direction = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 60
+selected_structure.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_vector.speed = 60
+motor_vector.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 61
+selected_structure.direction = 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 61
+selected_structure.direction = 0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 61
+selected_structure.direction = 
+-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = 61
+selected_structure.direction = 
+-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_135</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +2117,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,17 +2505,17 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1062,17 +2523,17 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1080,17 +2541,17 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1098,17 +2559,17 @@
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1225,55 +2686,55 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="9"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="9"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="9"/>
       <c r="N21" s="5"/>
     </row>
@@ -1342,17 +2803,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C8:L14"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1361,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADE2C6B-FB98-4B92-AE6C-957801749AFD}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,27 +2836,28 @@
     <col min="4" max="4" width="21.125" style="13" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="13" customWidth="1"/>
     <col min="6" max="6" width="15" style="13" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="27.875" style="13" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="13" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>44</v>
+      <c r="J1" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,10 +2885,10 @@
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -1434,27 +2896,27 @@
         <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1462,27 +2924,27 @@
         <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1490,355 +2952,355 @@
         <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>66</v>
+        <v>90</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>53</v>
@@ -1846,405 +3308,3541 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10"/>
+    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10"/>
+    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="10"/>
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="10"/>
+    <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10"/>
+    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10"/>
+    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10"/>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10"/>
+    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
+    <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="10"/>
+    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="10"/>
+    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10"/>
+    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10"/>
+    <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="10"/>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="10"/>
+    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="10"/>
+    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10"/>
+    <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ARS_SoftwareUnitTestSpecification.xlsx
+++ b/ARS_SoftwareUnitTestSpecification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종혁\Pictures\Desktop\ARS_Test_Git\SW_Test_Autonomous_Object_Tracking_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9730B9E-2F5B-4AD7-A500-141DF6EC18BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA5E9A-3FAB-4121-A870-A56242D0B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="915" windowWidth="18465" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
+    <workbookView xWindow="1080" yWindow="585" windowWidth="18465" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1816,12 +1816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selected_structure.speed = output_from_line_process.speed
-selected_structure.direction = output_from_line_process.direction
-selected_structure.priority_code = output_from_line_process.priority_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_129</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1910,6 +1904,12 @@
   </si>
   <si>
     <t>TC_135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_structure.speed = output_from_line_process.speed
+selected_structure.direction = output_from_line_process.direction*60
+selected_structure.priority_code = output_from_line_process.priority_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2117,10 +2117,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,17 +2505,17 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2523,17 +2523,17 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2541,17 +2541,17 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2559,17 +2559,17 @@
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -2686,55 +2686,55 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="9"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="9"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="9"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="9"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="9"/>
       <c r="N21" s="5"/>
     </row>
@@ -2803,17 +2803,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C8:L14"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2824,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADE2C6B-FB98-4B92-AE6C-957801749AFD}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2843,20 +2843,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2885,8 +2885,8 @@
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6607,14 +6607,14 @@
         <v>371</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
     </row>
     <row r="136" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>159</v>
@@ -6632,52 +6632,52 @@
         <v>27</v>
       </c>
       <c r="G136" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H136" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="C137" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="D137" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G137" s="12" t="s">
+      <c r="H137" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
     </row>
     <row r="138" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B138" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="D138" s="10" t="s">
         <v>26</v>
       </c>
@@ -6688,108 +6688,108 @@
         <v>27</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
     </row>
     <row r="139" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="H139" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
     </row>
     <row r="140" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>388</v>
-      </c>
       <c r="H140" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
     </row>
     <row r="141" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="H141" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B142" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="D142" s="10" t="s">
         <v>26</v>
       </c>
@@ -6800,10 +6800,10 @@
         <v>27</v>
       </c>
       <c r="G142" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H142" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>

--- a/ARS_SoftwareUnitTestSpecification.xlsx
+++ b/ARS_SoftwareUnitTestSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종혁\Pictures\Desktop\ARS_Test_Git\SW_Test_Autonomous_Object_Tracking_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA5E9A-3FAB-4121-A870-A56242D0B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF5703-6556-43B9-9A6F-04F3715FF41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="585" windowWidth="18465" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
+    <workbookView xWindow="-20880" yWindow="450" windowWidth="20880" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="380">
   <si>
     <t>Project :</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,26 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경계값 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,18 +160,6 @@
   </si>
   <si>
     <t>pos_x = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,171 +182,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">distance = 170
-current index = 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return_time = -1
-prev_index = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 10000
-prev_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">distance = 170
-current index = 6 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 10000
-prev_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance_circular_queue에 10개의 거리 값을 누적한다. 데이터 누적의 시작점은 이전에 값을 저장한 인덱스의 다음 자리가 되나, 인덱스가 10 이상이 될 경우 0으로 초기화하여 해당 공간을 덮어씌운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered_distance 
-= (d1 + d2 + … + d9 + d10)/10
-(dn = distance per tick, dn &gt;= 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = -30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 10000
-prev_index = 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)
-prev_index = -1(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 10000
-prev_index = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">distance = 170
-current index = 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = 170
-curret index = -1(Error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,179 +198,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return_time = -1
-prev_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)
-prev_index = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = -1
-prev_index = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)
-prev_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 0
-prev_index = 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)
-curret index = -1(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 0
-prev_index = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 0
-prev_index = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 0
-prev_index = 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)
-prev_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 1
-prev_index = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = 0.017
-prev_index = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_time = 5
-prev_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = 0.085
-prev_index = 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = -1(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prev_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currnet_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered_distance = -1(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered_distance = 35.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 0
-distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 1
-distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 3
-distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 5
-distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 9
-distance_circular_queue = {30, 35, 40, 35, 40, 35, 30, 35, 40, 35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 0
-distance_circular_queue = {42, 30, 30, 30, 30, 30, 30, 30, 30, 30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 5
-distance_circular_queue = {42, 80, 45, 90, 60, 30, 30, 30, 30, 30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 9
-distance_circular_queue = {42, 80, 45, 90, 60, 30, 30, 30, 30, 30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 10
-distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 55}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 9
-distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 90}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,155 +207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev_index = 8
-distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 3
-distance_circular_queue = {50, 53, 49, 60}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev_index = 4
-distance_circular_queue = {50, 53, 49, 60, 90}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = -1
-distance_circular_queue = {50, 53, 49, 60, 55, 58, 62, 66, 70, 55}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 1
-distance_circular_queue = {50, 53}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 2
-distance_circular_queue = {50, 53. 49}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 3
-distance_circular_queue = {50, 53. 49, 50}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 4
-distance_circular_queue = {50, 53. 49, 50, 49}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 5
-distance_circular_queue = {50, 53. 49, 50, 49, 55}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 6
-distance_circular_queue = {50, 53. 49, 50, 49, 55, 53}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 7
-distance_circular_queue = {50, 53. 49, 50, 49, 55, 53, 50}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev_index = 8
-distance_circular_queue = {50, 53. 49, 50, 49, 55, 53, 50, 45}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data_process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct sensor_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,50 +220,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>struct sensor_data(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>priority_maker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇 전방 물체에 대하여 로봇의 좌, 우측 중 어느 방향에 있는지 파악한 후, DC모터의 회전에 적용할 각도를 구해낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,67 +288,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 255(Error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>object_tracking_process</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매개변수로 입력 받은 Sensor Data를 이용하여, 물체 추적에 따른 모터의 속력, 회전 값을 산출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 1
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 15
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 0.5
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 0
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 0
-speed = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -912,32 +312,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-revolving_ratio = -0.333
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 angle = -30
 distance = 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-revolving_ratio = -1
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 angle = -31
 distance = 30</t>
@@ -956,36 +336,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 angle = 30
 distance = 21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-revolving_ratio = 0
-speed = 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 angle = 30
 distance = 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 angle = 30
 distance = 10</t>
@@ -1004,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on_or_off = 0
 revolving_ratio = 10
 speed = 10</t>
@@ -1020,26 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on_or_off = 0
 revolving_ratio = 0
 speed = 10</t>
@@ -1052,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = 31
 distance = 20</t>
@@ -1074,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = -20
 distance = 0</t>
@@ -1090,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = -10
 distance = 0</t>
@@ -1106,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = -30
 distance = 0</t>
@@ -1122,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = -30
 distance = 30</t>
@@ -1138,14 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = -29
 distance = 30</t>
@@ -1158,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = 30
 distance = 20</t>
@@ -1180,17 +486,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 angle = 30
 distance = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1215,14 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -1243,18 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 0
@@ -1282,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -1300,14 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 0
@@ -1321,10 +587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 0
@@ -1338,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -1355,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -1366,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 1
 sensor_data.lines_info.line_left = 0
@@ -1377,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 1
 sensor_data.lines_info.line_left = 0
@@ -1388,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 1
 sensor_data.lines_info.line_left = 1
@@ -1399,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hazard_prevention_process</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,14 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 15
 distance = 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,18 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 30
 distance = -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1462,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = -1
 distance = 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,25 +695,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = -31
 distance = 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 31
 distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1521,38 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 30
 distance = 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1676,25 +846,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 30
 distance = 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = 30
 distance = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1704,17 +862,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on_or_off = 0
 revolving_ratio = 1
 speed = 0(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1738,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 1
 output_from_object_process.on_or_off 
 = 0
@@ -1758,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 1
 output_from_object_process.on_or_off 
 = 1
@@ -1770,14 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 0
 output_from_object_process.on_or_off 
 = 1
@@ -1792,10 +926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 0
 output_from_object_process.on_or_off 
 = 1
@@ -1804,10 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 0
 output_from_object_process.on_or_off 
 = 0
@@ -1816,10 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>output_from_hazard_process.on_or_off = 0
 output_from_object_process.on_or_off 
 = 0
@@ -1832,10 +954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>set_reader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1855,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selected_structure.speed = 60
 selected_structure.direction = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1874,16 +988,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selected_structure.speed = 61
 selected_structure.direction = 0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_133</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1893,23 +999,745 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selected_structure.speed = 61
 selected_structure.direction = 
 -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selected_structure.speed = output_from_line_process.speed
 selected_structure.direction = output_from_line_process.direction*60
 selected_structure.priority_code = output_from_line_process.priority_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_index = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_index = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.revolving_ratio = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.revolving_ratio = 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.revolving_ratio = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.revolving_ratio = -0.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.revolving_ratio = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 0
+process_output.revolving_ratio = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 15
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 0
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.on_or_off = 1
+process_output.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 30
+return_time = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 5000.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 10000.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 170.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 85.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time = 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = 17.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파가 전방 물체에 맞고 돌아오는 시간을 이용하여, 전방 물체의 거리 계산식을 수행한 뒤 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1(Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>TC_56</t>
+  </si>
+  <si>
+    <t>TC_57</t>
+  </si>
+  <si>
+    <t>TC_58</t>
+  </si>
+  <si>
+    <t>TC_59</t>
+  </si>
+  <si>
+    <t>TC_60</t>
+  </si>
+  <si>
+    <t>TC_61</t>
+  </si>
+  <si>
+    <t>TC_62</t>
+  </si>
+  <si>
+    <t>TC_63</t>
+  </si>
+  <si>
+    <t>TC_64</t>
+  </si>
+  <si>
+    <t>TC_65</t>
+  </si>
+  <si>
+    <t>TC_66</t>
+  </si>
+  <si>
+    <t>TC_67</t>
+  </si>
+  <si>
+    <t>TC_68</t>
+  </si>
+  <si>
+    <t>TC_69</t>
+  </si>
+  <si>
+    <t>TC_70</t>
+  </si>
+  <si>
+    <t>TC_71</t>
+  </si>
+  <si>
+    <t>TC_72</t>
+  </si>
+  <si>
+    <t>TC_73</t>
+  </si>
+  <si>
+    <t>TC_74</t>
+  </si>
+  <si>
+    <t>TC_75</t>
+  </si>
+  <si>
+    <t>TC_76</t>
+  </si>
+  <si>
+    <t>TC_77</t>
+  </si>
+  <si>
+    <t>TC_78</t>
+  </si>
+  <si>
+    <t>TC_79</t>
+  </si>
+  <si>
+    <t>TC_80</t>
+  </si>
+  <si>
+    <t>TC_81</t>
+  </si>
+  <si>
+    <t>TC_82</t>
+  </si>
+  <si>
+    <t>TC_83</t>
+  </si>
+  <si>
+    <t>TC_84</t>
+  </si>
+  <si>
+    <t>TC_85</t>
+  </si>
+  <si>
+    <t>TC_86</t>
+  </si>
+  <si>
+    <t>TC_87</t>
+  </si>
+  <si>
+    <t>TC_88</t>
+  </si>
+  <si>
+    <t>TC_89</t>
+  </si>
+  <si>
+    <t>TC_90</t>
+  </si>
+  <si>
+    <t>TC_91</t>
+  </si>
+  <si>
+    <t>TC_92</t>
+  </si>
+  <si>
+    <t>TC_93</t>
+  </si>
+  <si>
+    <t>TC_94</t>
+  </si>
+  <si>
+    <t>TC_95</t>
+  </si>
+  <si>
+    <t>TC_96</t>
+  </si>
+  <si>
+    <t>TC_97</t>
+  </si>
+  <si>
+    <t>TC_98</t>
+  </si>
+  <si>
+    <t>TC_99</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>fovDistanceProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDistance를 수행하여,  distance_circular_queue에 누적한다.
+ distance = ((float)(340*return_time) /10000)/2를 따르며, 
+circular_queue의 current index는 (prev_index + 1)%queue_size가 된다.
+queue_size는 10의 상수값을 가진다.
+따라서 인덱스의 값은 0~9 사이의 값을 가진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 0
+fov_distances = {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 1
+fov_distances = {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 2
+fov_distances = {1, 2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 3
+fov_distances = {1, 2, 3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 4
+fov_distances = {1, 2, 3, 4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 0
+fov_distances =
+{0, 0, 0, 0, 0, 0, 0, 0, 0, 0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 1
+fov_distances = {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 10
+fov_distances = {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 0
+validCount = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 1
+validCount = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 2
+validCount = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 3
+validCount = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 4
+validCount = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = -1
+fov_distances = {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = -1
+fov_distances = {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 100
+fov_distances = {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">노이즈 제거를 위하여 원형 큐의 크기와 원소들을 이용하여 평균 필터를 적용한다.
+(1-a) * 이전까지의 평균 + a * 현재값의 계산 결과를 반환한다. 
+이 때, a는 원소의 전체 개수 - 1/ 원소의 전체 개수가 된다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 1
+prevAverage = 0
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 0
+prevAverage = 0
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 30.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meanFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 10
+prevAverage = 60.0f
+newValue = 50.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = -1
+prevAverage = 60.0f
+newValue = 50.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = -1
+prevAverage = 45.0f
+newValue = 45.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 10
+prevAverage = 45.0f
+newValue = 45.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 5
+prevAverage = 45.0f
+newValue = 35.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 2
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 35.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 3
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 4
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 43.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filteredDistance = 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 9
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 10
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = 11
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueLength = -1
+prevAverage = 50.0f
+newValue = 30.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorDataProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentIdx = 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2117,10 +1945,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,17 +2333,17 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2523,17 +2351,17 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2541,17 +2369,17 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2559,17 +2387,17 @@
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -2686,55 +2514,55 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="9"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="9"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="9"/>
       <c r="N21" s="5"/>
     </row>
@@ -2803,17 +2631,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C8:L14"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADE2C6B-FB98-4B92-AE6C-957801749AFD}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2843,21 +2671,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
+      <c r="J1" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2865,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>16</v>
@@ -2885,3964 +2713,3600 @@
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>48</v>
+        <v>340</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>51</v>
+        <v>346</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>53</v>
+        <v>347</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>98</v>
+        <v>348</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>110</v>
+        <v>364</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>66</v>
+        <v>367</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>66</v>
+        <v>332</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>66</v>
+        <v>374</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>66</v>
+        <v>375</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>104</v>
+        <v>376</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>66</v>
+        <v>377</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>66</v>
+        <v>378</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>66</v>
+        <v>379</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>149</v>
+        <v>54</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>149</v>
+        <v>58</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>158</v>
+      <c r="H49" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>149</v>
+        <v>29</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>149</v>
+        <v>32</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>186</v>
+        <v>63</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>173</v>
+        <v>64</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>175</v>
+        <v>65</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>177</v>
+        <v>66</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>180</v>
+        <v>69</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>181</v>
+        <v>70</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>182</v>
+        <v>71</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>184</v>
+        <v>75</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
     </row>
     <row r="69" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
     </row>
     <row r="70" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
     </row>
     <row r="71" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
     </row>
     <row r="73" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
     </row>
     <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
     </row>
     <row r="77" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
     </row>
-    <row r="83" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
     </row>
-    <row r="84" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
     </row>
-    <row r="85" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
     </row>
-    <row r="86" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
     </row>
-    <row r="87" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
     </row>
-    <row r="89" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
     </row>
-    <row r="103" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
     </row>
     <row r="109" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
     </row>
     <row r="110" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
     </row>
-    <row r="116" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
     </row>
-    <row r="117" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>317</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
     </row>
-    <row r="118" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
     </row>
-    <row r="119" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>319</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>336</v>
+        <v>162</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
     </row>
-    <row r="120" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>320</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
     </row>
-    <row r="121" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>321</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
     </row>
-    <row r="122" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>342</v>
+        <v>169</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>343</v>
+        <v>182</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
     </row>
-    <row r="123" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>323</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
     </row>
-    <row r="124" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
     </row>
-    <row r="125" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>352</v>
+        <v>175</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>352</v>
+        <v>175</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
     </row>
-    <row r="127" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>352</v>
+        <v>175</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
     </row>
-    <row r="128" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>358</v>
+        <v>177</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
     </row>
-    <row r="130" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>358</v>
-      </c>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
     </row>
-    <row r="131" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>358</v>
-      </c>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
     </row>
-    <row r="132" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>358</v>
-      </c>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
-    </row>
-    <row r="133" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-    </row>
-    <row r="134" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-    </row>
-    <row r="135" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-    </row>
-    <row r="136" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-    </row>
-    <row r="137" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-    </row>
-    <row r="138" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-    </row>
-    <row r="139" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-    </row>
-    <row r="140" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-    </row>
-    <row r="141" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-    </row>
-    <row r="142" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ARS_SoftwareUnitTestSpecification.xlsx
+++ b/ARS_SoftwareUnitTestSpecification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이종혁\Pictures\Desktop\ARS_Test_Git\SW_Test_Autonomous_Object_Tracking_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF5703-6556-43B9-9A6F-04F3715FF41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD0ACC4-A4F5-4403-8B23-B0070DACA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20880" yWindow="450" windowWidth="20880" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
+    <workbookView xWindow="-21780" yWindow="375" windowWidth="21645" windowHeight="14520" activeTab="1" xr2:uid="{9C0766D7-9F8B-4066-86C6-A7E2BEA41E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="400">
   <si>
     <t>Project :</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>요구사항 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,19 +207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sensor_data_process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라인 정보 구조체, 파싱된 타겟 정보 구조체를 생성한다. 또한 전방 물체에 대한 Circular Queue에 거리 값을 누적한다. 해당 과정에서는 stack_distance를 호출한다. 
 최종적으로 라인 정보, 타겟 정보, 거리 값 배열을 하나의 구조체로 형성하여 반환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>priority_maker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇 전방 물체에 대하여 로봇의 좌, 우측 중 어느 방향에 있는지 파악한 후, DC모터의 회전에 적용할 각도를 구해낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,26 +228,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = 29.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pos_x = 300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = 27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pos_x = 158</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pos_x = 157</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,14 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angle = -0.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angle = -20.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,207 +260,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object_tracking_process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매개변수로 입력 받은 Sensor Data를 이용하여, 물체 추적에 따른 모터의 속력, 회전 값을 산출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = -1
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = -30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = -31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 10
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 10
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-angle = 30
-distance = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 31
-distance = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -31
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -20
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -6.666
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -10
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -3.333
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -30
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -10
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -10
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = -29
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -9.666
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 30
-distance = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 30
-distance = 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 10
-speed = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 0
-angle = 30
-distance = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_tracking_process</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,12 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-direction = 0
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -527,12 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-direction = 0.333
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 0
@@ -554,12 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 1
-direction = -0.333
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 1
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -594,12 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 0
-direction = 0.333
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -607,12 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on_or_off = 0
-direction = -0.333
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor_data.target_object_info.signature = 0
 sensor_data.lines_info.line_middle = 0
 sensor_data.lines_info.line_left = 1
@@ -641,238 +379,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hazard_prevention_process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매개변수로 입력 받은 Sensor Data를
 이용하여, 위험 예방에 필요한 속력과 방향 값을 산출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 15
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 0
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 1
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -1
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -15
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -30
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 31
-distance = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 1
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0.5
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0.033
-speed = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0
-speed = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -0.033
-speed = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -0.5
-speed = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -1
-speed = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 15
-distance = 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 1
-distance = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 1
-speed = 6.666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 0.5
-speed = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 1
-revolving_ratio = 0.033
-speed = 3.333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 0
-distance = 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 0
-speed = 3.666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -1
-distance = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -0.033
-speed = 6.666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -15
-distance = 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -0.5
-speed = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -30
-distance = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -30
-distance = 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -1
-speed = 3.666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -1
-speed = 3.333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = -30
-distance = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = -1
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle = 30
-distance = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 1
-speed = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_or_off = 0
-revolving_ratio = 1
-speed = 0(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 1
-output_from_object_process.on_or_off 
-= 1
-output_from_line_process.on_or_off 
-= 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -882,176 +390,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selected_structure.speed = output_from_hazard_process.speed
-selected_structure.direction = output_from_hazard_process.direction
-selected_structure.priority_code = output_from_hazard_process.priority_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 1
-output_from_object_process.on_or_off 
-= 0
-output_from_line_process.on_or_off 
-= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 1
-output_from_object_process.on_or_off 
-= 0
-output_from_line_process.on_or_off 
-= 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 1
-output_from_object_process.on_or_off 
-= 1
-output_from_line_process.on_or_off 
-= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 0
-output_from_object_process.on_or_off 
-= 1
-output_from_line_process.on_or_off 
-= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = output_from_object_process.speed
-selected_structure.direction = output_from_object_process.direction
-selected_structure.priority_code = output_from_object_process.priority_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 0
-output_from_object_process.on_or_off 
-= 1
-output_from_line_process.on_or_off 
-= 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 0
-output_from_object_process.on_or_off 
-= 0
-output_from_line_process.on_or_off 
-= 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_from_hazard_process.on_or_off = 0
-output_from_object_process.on_or_off 
-= 0
-output_from_line_process.on_or_off 
-= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return process(Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_reader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최우선 순위 기능에 대응하는 구조체의 멤버 변수를 읽어 들여 이상치가 없는지 확인한다. 만일 이상치가 확인될 경우 값을 조정한다.
 조정한 값을 바탕으로 모터의 속력, 방향 값을 포함한 구조체를 반환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selected_structure.speed = 61
-selected_structure.direction = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor_vector.speed = 0
-motor_vector.direction = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = 60
-selected_structure.direction = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor_vector.speed = 60
-motor_vector.direction = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = 61
-selected_structure.direction = 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = 61
-selected_structure.direction = 0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = 61
-selected_structure.direction = 
--0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = 61
-selected_structure.direction = 
--1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_structure.speed = output_from_line_process.speed
-selected_structure.direction = output_from_line_process.direction*60
-selected_structure.priority_code = output_from_line_process.priority_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>current_index = 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>current_index = 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 1
-process_output.revolving_ratio = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 1
-process_output.revolving_ratio = 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 1
-process_output.revolving_ratio = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 1
-process_output.revolving_ratio = -0.333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 1
-process_output.revolving_ratio = -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_output.on_or_off = 0
-process_output.revolving_ratio = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-sensor_data.target_object_info.pos_x = 15
-distance = 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,17 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>process_output.on_or_off = 1
-process_output.direction = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor_data.target_object_info.signature = 1
-sensor_data.target_object_info.pos_x = 30
-return_time = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return_time = 5000.0f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,10 +450,6 @@
   </si>
   <si>
     <t>초음파가 전방 물체에 맞고 돌아오는 시간을 이용하여, 전방 물체의 거리 계산식을 수행한 뒤 반환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance = -1(Error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1738,6 +1071,819 @@
   </si>
   <si>
     <t>currentIdx = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 27.143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = 0.095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -0.095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle = -10.952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 315
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 10
+process_output.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 316
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 10
+process_output.direction = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 10
+process_output.direction = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectTrackingProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 10
+process_output.direction = 0.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 10
+process_output.direction = -0.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 316
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 314
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 10
+process_output.direction = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 10
+process_output.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 10
+process_output.direction = 0.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 0
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 10
+process_output.direction = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = -1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 316
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 100
+process_output.direction = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 315
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 100
+process_output.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 100
+process_output.direction = -0.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 0
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = true
+processOutput.speed = 100
+process_output.direction = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = -1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 316
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 100
+process_output.direction = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 1
+sensor_data.target_object_info.pos_x = 315
+distance = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 100
+process_output.direction = -0.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = 0
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 100
+process_output.direction = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 0
+sensor_data.target_object_info.pos_x = -1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = -1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = 1
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = 0
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = 316
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = 315
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_output.onSignal = false
+processOutput.speed = 100
+process_output.direction = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor_data.target_object_info.signature = 2
+sensor_data.target_object_info.pos_x = 314
+distance = 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = 0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = -0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSingal = 1
+direction = -0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSingal = 1
+direction = 0
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSingal = 1
+direction = 0.333
+speed = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineTrackingProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazardPreventionProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 315
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 316
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = 0.994
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = 0
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = 1
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = -0.994
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 0
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 0
+direction = -1
+speed = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = -1
+distance = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 316
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 315
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 314
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 1
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0.994
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 158
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0.003
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 157
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -0.003
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 1
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -0.994
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 0 
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -1
+speed = 6.667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = -1
+distance = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 1
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0.994
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = 0.003
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -0.003
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 157
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = -1
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 315
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 314
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 158
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 1
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -0.994
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorData.targetObjectInfo.signature = 1
+sensorData.targetobjectInfo.posX = 0
+distance = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSignal = 1
+direction = -1
+speed = 3.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 1
+outputFromLineProcess.
+onSignal = 1
+outputFromHazardProcess.
+onSignal = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiedData.priorityCode
+= HAZARD_PREVENTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiedData.priorityCode
+= OBJECT_TRACKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiedData.priorityCode
+= LINE_TRACKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiedData.priorityCode
+= REMOTE_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 1
+outputFromLineProcess.
+onSignal 
+= 0
+outputFromHazardProcess.
+onSignal = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 1
+outputFromLineProcess.
+onSignal = 1
+outputFromHazardProcess.
+onSignal = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 0
+outputFromLineProcess.
+onSignal = 1
+outputFromHazardProcess.
+onSignal = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 0
+outputFromLineProcess.
+onSignal = 1 outputFromHazardProcess.
+onSignal = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 0
+outputFromLineProcess.
+onSignal = 0
+outputFromHazardProcess.
+onSignal = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFromObjectProcess.
+onSignal = 0
+outputFromLineProcess.
+onSignal = 0
+outputFromHazardProcess.
+onSignal = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1
+selectedStructure.priorityCode = HAZARD_PREVENTION
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = HAZARD_PREVENTION
+motorVector.speed = prevAverageDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1
+selectedStructure.priorityCode = HAZARD_PREVENTION
+selectedStructure.speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = HAZARD_PREVENTION
+motorVector.speed = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 0
+selectedStructure.priorityCode = HAZARD_PREVENTION
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = -0.5f
+selectedStructure.priorityCode = HAZARD_PREVENTION
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 0
+motorVector.priorityCode = HAZARD_PREVENTION
+motorVector.speed = prevAverageDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = OBJECT_TRACKING
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 0
+motorVector.priorityCode = OBJECT_TRACKING
+motorVector.speed = prevAverageDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = OBJECT_TRACKING
+selectedStructure.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = OBJECT_TRACKING
+motorVector.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = OBJECT_TRACKING
+selectedStructure.speed = 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = OBJECT_TRACKING
+motorVector.speed = 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = REMOTE_OFF
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 0
+motorVector.priorityCode = REMOTE_OFF
+motorVector.speed = prevAverageDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = REMOTE_OFF
+selectedStructure.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = REMOTE_OFF
+motorVector.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 1.0f
+selectedStructure.priorityCode = REMOTE_OFF
+selectedStructure.speed = 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = 1
+motorVector.priorityCode = REMOTE_OFF
+motorVector.speed = 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = 0.0f
+selectedStructure.priorityCode = REMOTE_OFF
+selectedStructure.speed = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedStructure.direction = -1.0f
+selectedStructure.priorityCode = REMOTE_OFF
+selectedStructure.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorVector.direction = -1
+motorVector.priorityCode = REMOTE_OFF
+motorVector.speed = 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityMaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setReader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2650,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADE2C6B-FB98-4B92-AE6C-957801749AFD}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2721,10 +2867,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
@@ -2736,23 +2882,23 @@
         <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>25</v>
@@ -2764,23 +2910,23 @@
         <v>26</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
@@ -2792,23 +2938,23 @@
         <v>26</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>25</v>
@@ -2820,23 +2966,23 @@
         <v>26</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -2848,10 +2994,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2861,10 +3007,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>25</v>
@@ -2876,23 +3022,23 @@
         <v>26</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>25</v>
@@ -2904,23 +3050,23 @@
         <v>26</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>334</v>
+        <v>215</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>25</v>
@@ -2932,23 +3078,23 @@
         <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -2960,23 +3106,23 @@
         <v>26</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
@@ -2988,23 +3134,23 @@
         <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>25</v>
@@ -3016,20 +3162,20 @@
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>34</v>
@@ -3044,20 +3190,20 @@
         <v>26</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>34</v>
@@ -3072,20 +3218,20 @@
         <v>26</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>34</v>
@@ -3100,20 +3246,20 @@
         <v>26</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>34</v>
@@ -3128,20 +3274,20 @@
         <v>26</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>34</v>
@@ -3156,23 +3302,23 @@
         <v>26</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
@@ -3184,23 +3330,23 @@
         <v>26</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -3212,23 +3358,23 @@
         <v>26</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
@@ -3240,23 +3386,23 @@
         <v>26</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -3268,23 +3414,23 @@
         <v>26</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>354</v>
+        <v>235</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>25</v>
@@ -3296,23 +3442,23 @@
         <v>26</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>355</v>
+        <v>236</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>25</v>
@@ -3324,23 +3470,23 @@
         <v>26</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>25</v>
@@ -3352,23 +3498,23 @@
         <v>26</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>25</v>
@@ -3380,23 +3526,23 @@
         <v>26</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>25</v>
@@ -3408,23 +3554,23 @@
         <v>26</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>359</v>
+        <v>240</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>25</v>
@@ -3436,23 +3582,23 @@
         <v>26</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>25</v>
@@ -3464,23 +3610,23 @@
         <v>26</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
@@ -3492,23 +3638,23 @@
         <v>26</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>25</v>
@@ -3520,23 +3666,23 @@
         <v>26</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>370</v>
+        <v>251</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
@@ -3548,23 +3694,23 @@
         <v>26</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="C33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>25</v>
@@ -3576,23 +3722,23 @@
         <v>26</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>372</v>
+        <v>253</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
@@ -3604,23 +3750,23 @@
         <v>26</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>25</v>
@@ -3632,24 +3778,24 @@
         <v>26</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
@@ -3660,23 +3806,23 @@
         <v>26</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>25</v>
@@ -3688,23 +3834,23 @@
         <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>25</v>
@@ -3716,23 +3862,23 @@
         <v>26</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>25</v>
@@ -3744,23 +3890,23 @@
         <v>26</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>378</v>
+        <v>259</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
@@ -3772,23 +3918,23 @@
         <v>26</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>25</v>
@@ -3800,23 +3946,23 @@
         <v>26</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
@@ -3828,23 +3974,23 @@
         <v>26</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -3856,23 +4002,23 @@
         <v>26</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
@@ -3884,23 +4030,23 @@
         <v>26</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>25</v>
@@ -3912,23 +4058,23 @@
         <v>26</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>25</v>
@@ -3940,23 +4086,23 @@
         <v>26</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>25</v>
@@ -3968,23 +4114,23 @@
         <v>26</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>25</v>
@@ -3996,23 +4142,23 @@
         <v>26</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>25</v>
@@ -4027,20 +4173,20 @@
         <v>30</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>25</v>
@@ -4055,20 +4201,20 @@
         <v>29</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
@@ -4083,20 +4229,20 @@
         <v>32</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
@@ -4108,23 +4254,23 @@
         <v>26</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>25</v>
@@ -4136,23 +4282,23 @@
         <v>26</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>25</v>
@@ -4164,23 +4310,23 @@
         <v>26</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>25</v>
@@ -4192,23 +4338,23 @@
         <v>26</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>25</v>
@@ -4220,23 +4366,23 @@
         <v>26</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>25</v>
@@ -4248,23 +4394,23 @@
         <v>26</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>25</v>
@@ -4276,23 +4422,23 @@
         <v>26</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>25</v>
@@ -4304,23 +4450,23 @@
         <v>26</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>25</v>
@@ -4332,23 +4478,23 @@
         <v>26</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>25</v>
@@ -4360,23 +4506,23 @@
         <v>26</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>25</v>
@@ -4388,23 +4534,23 @@
         <v>26</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>25</v>
@@ -4416,23 +4562,23 @@
         <v>26</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>25</v>
@@ -4444,23 +4590,23 @@
         <v>26</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
     </row>
-    <row r="65" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>25</v>
@@ -4472,23 +4618,23 @@
         <v>26</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
     </row>
-    <row r="66" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>25</v>
@@ -4500,23 +4646,23 @@
         <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
     </row>
-    <row r="67" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>25</v>
@@ -4528,23 +4674,23 @@
         <v>26</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>25</v>
@@ -4556,23 +4702,23 @@
         <v>26</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>25</v>
@@ -4584,23 +4730,23 @@
         <v>26</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>25</v>
@@ -4612,23 +4758,23 @@
         <v>26</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
     </row>
-    <row r="71" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>25</v>
@@ -4640,23 +4786,23 @@
         <v>26</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
     </row>
-    <row r="72" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>25</v>
@@ -4668,23 +4814,23 @@
         <v>26</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
     </row>
-    <row r="73" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="C73" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>25</v>
@@ -4696,23 +4842,23 @@
         <v>26</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
     </row>
-    <row r="74" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>25</v>
@@ -4724,23 +4870,23 @@
         <v>26</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>25</v>
@@ -4752,23 +4898,23 @@
         <v>26</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>25</v>
@@ -4780,23 +4926,23 @@
         <v>26</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>25</v>
@@ -4808,23 +4954,23 @@
         <v>26</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>25</v>
@@ -4836,443 +4982,443 @@
         <v>26</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
     </row>
     <row r="79" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
     </row>
     <row r="80" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
     </row>
     <row r="90" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>25</v>
@@ -5284,23 +5430,23 @@
         <v>26</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>25</v>
@@ -5312,23 +5458,23 @@
         <v>26</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>25</v>
@@ -5340,23 +5486,23 @@
         <v>26</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>25</v>
@@ -5368,23 +5514,23 @@
         <v>26</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>25</v>
@@ -5396,23 +5542,23 @@
         <v>26</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>25</v>
@@ -5424,23 +5570,23 @@
         <v>26</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>25</v>
@@ -5452,23 +5598,23 @@
         <v>26</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>128</v>
+        <v>329</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>25</v>
@@ -5480,23 +5626,23 @@
         <v>26</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>25</v>
@@ -5508,23 +5654,23 @@
         <v>26</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
     </row>
-    <row r="103" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>25</v>
@@ -5536,23 +5682,23 @@
         <v>26</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>25</v>
@@ -5564,23 +5710,23 @@
         <v>26</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>25</v>
@@ -5592,23 +5738,23 @@
         <v>26</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>25</v>
@@ -5620,23 +5766,23 @@
         <v>26</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>145</v>
+        <v>342</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
     </row>
-    <row r="107" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>25</v>
@@ -5648,23 +5794,23 @@
         <v>26</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
     </row>
-    <row r="108" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>25</v>
@@ -5676,23 +5822,23 @@
         <v>26</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
     </row>
-    <row r="109" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>25</v>
@@ -5704,23 +5850,23 @@
         <v>26</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
     </row>
-    <row r="110" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>25</v>
@@ -5732,23 +5878,23 @@
         <v>26</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
     </row>
-    <row r="111" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>25</v>
@@ -5760,23 +5906,23 @@
         <v>26</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
     </row>
-    <row r="112" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>25</v>
@@ -5788,23 +5934,23 @@
         <v>26</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
     </row>
-    <row r="113" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>25</v>
@@ -5816,23 +5962,23 @@
         <v>26</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
     </row>
-    <row r="114" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>25</v>
@@ -5844,23 +5990,23 @@
         <v>26</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
     </row>
-    <row r="115" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>25</v>
@@ -5872,23 +6018,23 @@
         <v>26</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>159</v>
+        <v>344</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
     </row>
     <row r="116" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>25</v>
@@ -5900,23 +6046,23 @@
         <v>26</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>162</v>
+        <v>359</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>25</v>
@@ -5928,23 +6074,23 @@
         <v>26</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>162</v>
+        <v>359</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
     </row>
     <row r="118" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>25</v>
@@ -5956,23 +6102,23 @@
         <v>26</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>25</v>
@@ -5984,23 +6130,23 @@
         <v>26</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>162</v>
+        <v>359</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
     </row>
     <row r="120" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>25</v>
@@ -6012,23 +6158,23 @@
         <v>26</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
     </row>
     <row r="121" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>25</v>
@@ -6040,23 +6186,23 @@
         <v>26</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>168</v>
+        <v>366</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>25</v>
@@ -6068,23 +6214,23 @@
         <v>26</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>25</v>
@@ -6096,23 +6242,23 @@
         <v>26</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>25</v>
@@ -6124,23 +6270,23 @@
         <v>26</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>325</v>
+        <v>206</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>25</v>
@@ -6152,23 +6298,23 @@
         <v>26</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>25</v>
@@ -6180,23 +6326,23 @@
         <v>26</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>179</v>
+        <v>373</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>25</v>
@@ -6208,23 +6354,23 @@
         <v>26</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>180</v>
+        <v>374</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>25</v>
@@ -6236,23 +6382,23 @@
         <v>26</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>25</v>
@@ -6264,49 +6410,257 @@
         <v>26</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>176</v>
+        <v>378</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>177</v>
+        <v>379</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
+    <row r="130" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+    <row r="131" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+    <row r="132" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>388</v>
+      </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
